--- a/Design and Documentation/PERT Chart/PERT Table.xlsx
+++ b/Design and Documentation/PERT Chart/PERT Table.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bayley\Desktop\Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3610F4A0-1270-4184-896A-C2BE0473081C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B87D0BA-16DF-424A-8BE7-6A83943AA4BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="135" windowWidth="12840" windowHeight="15090" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks in Gantt format" sheetId="2" r:id="rId1"/>
     <sheet name="PERT Analysis" sheetId="4" r:id="rId2"/>
+    <sheet name="Updated PERT Tasks &amp; Timings" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="140">
   <si>
     <t>Duration</t>
   </si>
@@ -275,13 +276,187 @@
   </si>
   <si>
     <t>10, 13, 15</t>
+  </si>
+  <si>
+    <t>Float Free Slack</t>
+  </si>
+  <si>
+    <t>14 days</t>
+  </si>
+  <si>
+    <t>77 Days / 57 Working Days</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1 day</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>28 days</t>
+  </si>
+  <si>
+    <t>12 days</t>
+  </si>
+  <si>
+    <t>4 days</t>
+  </si>
+  <si>
+    <t>Actual Start</t>
+  </si>
+  <si>
+    <t>Actual Finish</t>
+  </si>
+  <si>
+    <t>Member who completed</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>Additional Comments</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Took an extra Day, but no time lost.</t>
+  </si>
+  <si>
+    <t>Took an extra day as was busy over the weekend.</t>
+  </si>
+  <si>
+    <t>Ellis</t>
+  </si>
+  <si>
+    <t>Other coursework lead to extra day, no time lost.</t>
+  </si>
+  <si>
+    <t>Started late, as had to wait for all requirements</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Believes he has much better understanding now, even taking a few extra days</t>
+  </si>
+  <si>
+    <t>Updated in April</t>
+  </si>
+  <si>
+    <t>Took us a while to finally meet up, because people working a lot recently.</t>
+  </si>
+  <si>
+    <t>Started a bit as was creating task cards.</t>
+  </si>
+  <si>
+    <t>Took an extra day, as was planning out how the flowchart would run. Also had problems with dia, so moved midway to Lucidchart.</t>
+  </si>
+  <si>
+    <t>Bayley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waited for class diagram, but no time lost as lots of float free slack. </t>
+  </si>
+  <si>
+    <t>Found it easier to make a sequence diagram first to help with class diagram. Sequence available in the documentation Documentation folder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID-19 forced Bayley to return home for work, so had no computer. Done these by hand for now and sent them to the group chat. </t>
+  </si>
+  <si>
+    <t>Things to Note:</t>
+  </si>
+  <si>
+    <t>Ellis still working as key worker</t>
+  </si>
+  <si>
+    <t>Bayley, at home, had no computer / laptop between day 25 (March 14) and day 46 (April 3rd) &amp; was also working extended shifts</t>
+  </si>
+  <si>
+    <t>Mike &amp; Tom working from home.</t>
+  </si>
+  <si>
+    <t>Done early as was free.</t>
+  </si>
+  <si>
+    <t>Started as soon as class diagram done.</t>
+  </si>
+  <si>
+    <t>Tom - Unit Tests, Ellis - Testing</t>
+  </si>
+  <si>
+    <t>Tom / Ellis</t>
+  </si>
+  <si>
+    <t>Took an extra day to ensure everything worked before testing.</t>
+  </si>
+  <si>
+    <t>Testing took longer, because both were at work.</t>
+  </si>
+  <si>
+    <t>Trouble reading from a file, so had to input manually. Heavily undestimated cycle.</t>
+  </si>
+  <si>
+    <t>Tom/Ellis</t>
+  </si>
+  <si>
+    <t>Testing orginally showed flaws, so went back to contiue coding.</t>
+  </si>
+  <si>
+    <t>GUI provided some issues, especially displaying imaging. Passing variables between windows also provided to be a struggle.</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done all sprints </t>
+  </si>
+  <si>
+    <t>Ran out of time, implemented trading partially</t>
+  </si>
+  <si>
+    <t>Tested trading only, no AI</t>
+  </si>
+  <si>
+    <t>Research done all on phone, took slightly longer. Will be written up when gets computer.</t>
+  </si>
+  <si>
+    <t>Was busy working over the weekend, but eventully got computer from Brighton, so can write up research.</t>
+  </si>
+  <si>
+    <t>Started late as writing up the previous research. Used an old A-Level project to help implement so was done in python.</t>
+  </si>
+  <si>
+    <t>Took a while to build an independent prototype in Java.</t>
+  </si>
+  <si>
+    <t>Ran out of time, some coding was complete.</t>
+  </si>
+  <si>
+    <t>Extended Deadline Date - 87 (15th May)</t>
+  </si>
+  <si>
+    <t>Deadline Day = 80 days (8th may) from Start</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -315,8 +490,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,8 +529,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -423,26 +623,161 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -453,6 +788,56 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,564 +1169,564 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="A14" s="5">
         <v>14</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="7">
         <v>15</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="3">
         <v>16</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="A17" s="5">
         <v>17</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="7">
         <v>18</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="3">
         <v>19</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="A20" s="5">
         <v>20</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="7">
         <v>21</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="3">
         <v>22</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="A23" s="5">
         <v>23</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="7">
         <v>24</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="3">
         <v>25</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+      <c r="A26" s="5">
         <v>26</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="A27" s="7">
         <v>27</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="3">
         <v>28</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="3">
         <v>29</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30" s="3">
         <v>30</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+      <c r="A31" s="5">
         <v>31</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="A32" s="7">
         <v>32</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33" s="3">
         <v>33</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
+      <c r="A34" s="5">
         <v>34</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>35</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1351,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21B0A91-3D11-4756-BDFF-2CAF53714682}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F36" sqref="A1:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,119 +1751,129 @@
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="22" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="7">
         <v>0</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="7">
         <v>2</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="7">
         <v>0</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="7">
         <v>2</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="5">
         <v>2</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <v>3</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="5">
         <v>16</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="5">
         <v>17</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1">
@@ -1493,16 +1888,18 @@
       <c r="F6" s="1">
         <v>8</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1">
@@ -1520,13 +1917,15 @@
       <c r="G7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="1">
@@ -1541,16 +1940,18 @@
       <c r="F8" s="1">
         <v>13</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1">
@@ -1568,13 +1969,15 @@
       <c r="G9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1">
@@ -1589,40 +1992,44 @@
       <c r="F10" s="1">
         <v>17</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>3</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <v>13</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5">
         <v>17</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="5">
         <v>27</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1">
@@ -1640,13 +2047,15 @@
       <c r="G12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="1">
@@ -1661,16 +2070,18 @@
       <c r="F13" s="1">
         <v>23</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1">
@@ -1685,40 +2096,44 @@
       <c r="F14" s="1">
         <v>27</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="5">
         <v>23</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="5">
         <v>28</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="5">
         <v>51</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="5">
         <v>56</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="1">
@@ -1736,13 +2151,15 @@
       <c r="G16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="1">
@@ -1758,46 +2175,50 @@
       <c r="F17" s="1">
         <v>35</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="9">
-        <f>D17</f>
+      <c r="C18" s="5">
+        <f t="shared" ref="C18:C27" si="0">D17</f>
         <v>35</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="5">
         <f>C18+3</f>
         <v>38</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="5">
         <v>35</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="5">
         <v>38</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="1">
-        <f>D18</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="D19" s="1">
@@ -1810,20 +2231,22 @@
       <c r="F19" s="1">
         <v>40</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1">
-        <f>D19</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D20" s="1">
@@ -1836,46 +2259,50 @@
       <c r="F20" s="1">
         <v>44</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="9">
-        <f>D20</f>
+      <c r="C21" s="5">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="5">
         <f>C21+1</f>
         <v>45</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="5">
         <v>44</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="5">
         <v>45</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="1">
-        <f>D21</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="D22" s="1">
@@ -1888,20 +2315,22 @@
       <c r="F22" s="1">
         <v>47</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="1">
-        <f>D22</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="D23" s="1">
@@ -1914,46 +2343,50 @@
       <c r="F23" s="1">
         <v>52</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="9">
-        <f>D23</f>
+      <c r="C24" s="5">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="5">
         <f>C24+2</f>
         <v>54</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="5">
         <v>52</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="5">
         <v>54</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="1">
-        <f>D24</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="D25" s="1">
@@ -1966,20 +2399,22 @@
       <c r="F25" s="1">
         <v>56</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="1">
-        <f>D25</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="D26" s="1">
@@ -1992,42 +2427,46 @@
       <c r="F26" s="1">
         <v>61</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="9">
-        <f>D26</f>
+      <c r="C27" s="5">
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="5">
         <f>C27+2</f>
         <v>63</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="5">
         <v>61</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="5">
         <v>63</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="1">
@@ -2047,13 +2486,15 @@
       <c r="G28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="1">
@@ -2073,13 +2514,15 @@
       <c r="G29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="1">
@@ -2099,13 +2542,15 @@
       <c r="G30" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="1">
@@ -2124,39 +2569,43 @@
       <c r="G31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="5">
         <f>D31</f>
         <v>52</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="5">
         <f>C32+10</f>
         <v>62</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="5">
         <v>56</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="5">
         <v>66</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="1">
@@ -2173,16 +2622,18 @@
       <c r="F33" s="1">
         <v>66</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="1">
@@ -2198,62 +2649,74 @@
       <c r="F34" s="1">
         <v>71</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="5">
         <f>D34</f>
         <v>71</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="5">
         <f>C35+2</f>
         <v>73</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="5">
         <v>71</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="5">
         <v>73</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="9">
         <f>D35</f>
         <v>73</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="9">
         <f>C36+4</f>
         <v>77</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="9">
         <f>F35</f>
         <v>73</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="9">
         <f>E36+4</f>
         <v>77</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="21" t="s">
         <v>68</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2262,6 +2725,1241 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8620D181-BA4A-4E9F-A69D-649890D26998}">
+  <dimension ref="A1:J44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" customWidth="1"/>
+    <col min="10" max="10" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="26">
+        <v>2</v>
+      </c>
+      <c r="G3" s="30">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="27">
+        <v>3</v>
+      </c>
+      <c r="G4" s="31">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="39"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>16</v>
+      </c>
+      <c r="F5" s="28">
+        <v>17</v>
+      </c>
+      <c r="G5" s="32">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="40"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="27">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>8</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="39"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="27">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+      <c r="F8" s="27">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1">
+        <v>14</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1">
+        <v>9</v>
+      </c>
+      <c r="F9" s="27">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1">
+        <v>13</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1">
+        <v>13</v>
+      </c>
+      <c r="F10" s="27">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1">
+        <v>18</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5">
+        <v>17</v>
+      </c>
+      <c r="F11" s="28">
+        <v>27</v>
+      </c>
+      <c r="G11" s="32">
+        <v>9</v>
+      </c>
+      <c r="H11" s="5">
+        <v>24</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1">
+        <v>19</v>
+      </c>
+      <c r="F12" s="27">
+        <v>23</v>
+      </c>
+      <c r="G12" s="3">
+        <v>19</v>
+      </c>
+      <c r="H12" s="1">
+        <v>23</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1">
+        <v>17</v>
+      </c>
+      <c r="F13" s="27">
+        <v>23</v>
+      </c>
+      <c r="G13" s="3">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1">
+        <v>24</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1">
+        <v>23</v>
+      </c>
+      <c r="F14" s="27">
+        <v>27</v>
+      </c>
+      <c r="G14" s="3">
+        <v>26</v>
+      </c>
+      <c r="H14" s="1">
+        <v>31</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5">
+        <v>23</v>
+      </c>
+      <c r="D16" s="5">
+        <v>28</v>
+      </c>
+      <c r="E16" s="5">
+        <v>51</v>
+      </c>
+      <c r="F16" s="28">
+        <v>56</v>
+      </c>
+      <c r="G16" s="32">
+        <v>32</v>
+      </c>
+      <c r="H16" s="5">
+        <v>37</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1">
+        <v>24</v>
+      </c>
+      <c r="F17" s="27">
+        <v>27</v>
+      </c>
+      <c r="G17" s="3">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1">
+        <v>19</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1">
+        <f>C18+8</f>
+        <v>35</v>
+      </c>
+      <c r="E18" s="1">
+        <v>27</v>
+      </c>
+      <c r="F18" s="27">
+        <v>35</v>
+      </c>
+      <c r="G18" s="3">
+        <v>31</v>
+      </c>
+      <c r="H18" s="1">
+        <v>39</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" ref="C19:C28" si="0">D18</f>
+        <v>35</v>
+      </c>
+      <c r="D19" s="5">
+        <f>C19+3</f>
+        <v>38</v>
+      </c>
+      <c r="E19" s="5">
+        <v>35</v>
+      </c>
+      <c r="F19" s="28">
+        <v>38</v>
+      </c>
+      <c r="G19" s="32">
+        <v>40</v>
+      </c>
+      <c r="H19" s="5">
+        <v>44</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="J19" s="40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D20" s="1">
+        <f>C20+2</f>
+        <v>40</v>
+      </c>
+      <c r="E20" s="1">
+        <v>38</v>
+      </c>
+      <c r="F20" s="27">
+        <v>40</v>
+      </c>
+      <c r="G20" s="3">
+        <v>44</v>
+      </c>
+      <c r="H20" s="1">
+        <v>46</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" s="39"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D21" s="1">
+        <f>C21+4</f>
+        <v>44</v>
+      </c>
+      <c r="E21" s="1">
+        <v>40</v>
+      </c>
+      <c r="F21" s="27">
+        <v>44</v>
+      </c>
+      <c r="G21" s="3">
+        <v>46</v>
+      </c>
+      <c r="H21" s="1">
+        <v>51</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D22" s="5">
+        <f>C22+1</f>
+        <v>45</v>
+      </c>
+      <c r="E22" s="5">
+        <v>44</v>
+      </c>
+      <c r="F22" s="28">
+        <v>45</v>
+      </c>
+      <c r="G22" s="32">
+        <v>51</v>
+      </c>
+      <c r="H22" s="5">
+        <v>54</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="J22" s="40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D23" s="1">
+        <f>C23+2</f>
+        <v>47</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45</v>
+      </c>
+      <c r="F23" s="27">
+        <v>47</v>
+      </c>
+      <c r="G23" s="3">
+        <v>55</v>
+      </c>
+      <c r="H23" s="1">
+        <v>58</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23" s="39"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D24" s="1">
+        <f>C24+5</f>
+        <v>52</v>
+      </c>
+      <c r="E24" s="1">
+        <v>47</v>
+      </c>
+      <c r="F24" s="27">
+        <v>52</v>
+      </c>
+      <c r="G24" s="3">
+        <v>58</v>
+      </c>
+      <c r="H24" s="1">
+        <v>66</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D25" s="5">
+        <f>C25+2</f>
+        <v>54</v>
+      </c>
+      <c r="E25" s="5">
+        <v>52</v>
+      </c>
+      <c r="F25" s="28">
+        <v>54</v>
+      </c>
+      <c r="G25" s="32">
+        <v>65</v>
+      </c>
+      <c r="H25" s="5">
+        <v>68</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J25" s="40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D26" s="1">
+        <f>C26+2</f>
+        <v>56</v>
+      </c>
+      <c r="E26" s="1">
+        <v>54</v>
+      </c>
+      <c r="F26" s="27">
+        <v>56</v>
+      </c>
+      <c r="G26" s="3">
+        <v>68</v>
+      </c>
+      <c r="H26" s="1">
+        <v>69</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" s="39"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D27" s="1">
+        <f>C27+5</f>
+        <v>61</v>
+      </c>
+      <c r="E27" s="1">
+        <v>56</v>
+      </c>
+      <c r="F27" s="27">
+        <v>61</v>
+      </c>
+      <c r="G27" s="3">
+        <v>69</v>
+      </c>
+      <c r="H27" s="1">
+        <v>79</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D28" s="5">
+        <f>C28+2</f>
+        <v>63</v>
+      </c>
+      <c r="E28" s="5">
+        <v>61</v>
+      </c>
+      <c r="F28" s="28">
+        <v>63</v>
+      </c>
+      <c r="G28" s="32">
+        <v>80</v>
+      </c>
+      <c r="H28" s="5">
+        <v>81</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="J28" s="40"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1">
+        <f>D14</f>
+        <v>27</v>
+      </c>
+      <c r="D29" s="1">
+        <f>C29+4</f>
+        <v>31</v>
+      </c>
+      <c r="E29" s="1">
+        <v>31</v>
+      </c>
+      <c r="F29" s="27">
+        <v>35</v>
+      </c>
+      <c r="G29" s="3">
+        <v>39</v>
+      </c>
+      <c r="H29" s="1">
+        <v>48</v>
+      </c>
+      <c r="I29" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="J29" s="39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="1">
+        <f>D29</f>
+        <v>31</v>
+      </c>
+      <c r="D30" s="1">
+        <f>C30+7</f>
+        <v>38</v>
+      </c>
+      <c r="E30" s="1">
+        <v>35</v>
+      </c>
+      <c r="F30" s="27">
+        <v>42</v>
+      </c>
+      <c r="G30" s="3">
+        <v>48</v>
+      </c>
+      <c r="H30" s="1">
+        <v>57</v>
+      </c>
+      <c r="I30" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="J30" s="39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="1">
+        <f>D30</f>
+        <v>38</v>
+      </c>
+      <c r="D31" s="1">
+        <f>C31+7</f>
+        <v>45</v>
+      </c>
+      <c r="E31" s="1">
+        <v>42</v>
+      </c>
+      <c r="F31" s="27">
+        <v>49</v>
+      </c>
+      <c r="G31" s="3">
+        <v>57</v>
+      </c>
+      <c r="H31" s="1">
+        <v>68</v>
+      </c>
+      <c r="I31" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="J31" s="39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1">
+        <f>C32+7</f>
+        <v>52</v>
+      </c>
+      <c r="E32" s="1">
+        <v>49</v>
+      </c>
+      <c r="F32" s="27">
+        <v>56</v>
+      </c>
+      <c r="G32" s="3">
+        <v>70</v>
+      </c>
+      <c r="H32" s="1">
+        <v>79</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="J32" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="5">
+        <f>D32</f>
+        <v>52</v>
+      </c>
+      <c r="D33" s="5">
+        <f>C33+10</f>
+        <v>62</v>
+      </c>
+      <c r="E33" s="5">
+        <v>56</v>
+      </c>
+      <c r="F33" s="28">
+        <v>66</v>
+      </c>
+      <c r="G33" s="32">
+        <v>82</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="J33" s="40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <f>D28</f>
+        <v>63</v>
+      </c>
+      <c r="D34" s="1">
+        <f>C34+3</f>
+        <v>66</v>
+      </c>
+      <c r="E34" s="1">
+        <v>63</v>
+      </c>
+      <c r="F34" s="27">
+        <v>66</v>
+      </c>
+      <c r="G34" s="3">
+        <v>82</v>
+      </c>
+      <c r="H34" s="1">
+        <v>84</v>
+      </c>
+      <c r="I34" s="36"/>
+      <c r="J34" s="39"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="1">
+        <v>66</v>
+      </c>
+      <c r="D35" s="1">
+        <f>C35+5</f>
+        <v>71</v>
+      </c>
+      <c r="E35" s="1">
+        <v>66</v>
+      </c>
+      <c r="F35" s="27">
+        <v>71</v>
+      </c>
+      <c r="G35" s="3">
+        <v>84</v>
+      </c>
+      <c r="H35" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="I35" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="J35" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="5">
+        <f>D35</f>
+        <v>71</v>
+      </c>
+      <c r="D36" s="5">
+        <f>C36+2</f>
+        <v>73</v>
+      </c>
+      <c r="E36" s="5">
+        <v>71</v>
+      </c>
+      <c r="F36" s="28">
+        <v>73</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="J36" s="39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="9">
+        <f>D36</f>
+        <v>73</v>
+      </c>
+      <c r="D37" s="9">
+        <f>C37+4</f>
+        <v>77</v>
+      </c>
+      <c r="E37" s="9">
+        <f>F36</f>
+        <v>73</v>
+      </c>
+      <c r="F37" s="29">
+        <f>E37+4</f>
+        <v>77</v>
+      </c>
+      <c r="G37" s="32">
+        <v>84</v>
+      </c>
+      <c r="H37" s="5">
+        <v>87</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="J37" s="40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E40" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>